--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/102.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/102.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1508357818977115</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.793387923887704</v>
+        <v>-1.79118672016532</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1157169334387792</v>
+        <v>-0.1174710653051066</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03878451287097835</v>
+        <v>0.03820691799009794</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1530966415560696</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.719209371181605</v>
+        <v>-1.719818072017</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1752098160901383</v>
+        <v>-0.1710068527066674</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01834668091382768</v>
+        <v>0.01685298517647169</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1700797529428462</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.715163767332735</v>
+        <v>-1.720962283206579</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.273691878002617</v>
+        <v>-0.2685972105897404</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05048767081642009</v>
+        <v>0.04756859045750388</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.198483344826663</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.739398965423319</v>
+        <v>-1.746900379826644</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.328381635324585</v>
+        <v>-0.3238279675519841</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08905417504855329</v>
+        <v>0.08679624870323198</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2296369021824738</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.715083257803404</v>
+        <v>-1.71674956109228</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3995959735416883</v>
+        <v>-0.3953850811894197</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1327745089992076</v>
+        <v>0.1288960234157667</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2548386119579941</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.597042869549646</v>
+        <v>-1.596082244483767</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4027169376446081</v>
+        <v>-0.3933442866050207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1349104512091793</v>
+        <v>0.1286971892751468</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2695636244638462</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.298744084807059</v>
+        <v>-1.301726596916357</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.524114329303188</v>
+        <v>-0.5070707059121403</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1646751901551612</v>
+        <v>0.1578879928643089</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2715375391544913</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8419189872088544</v>
+        <v>-0.8448405072504775</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6026641834995402</v>
+        <v>-0.5796195505699683</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1790650486816782</v>
+        <v>0.1711824338553863</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2572594405592671</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2216619847519471</v>
+        <v>-0.232297171592403</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6031118652762733</v>
+        <v>-0.5677193882459369</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2330582765908</v>
+        <v>0.2213124241979859</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.223268494210829</v>
       </c>
       <c r="E11" t="n">
-        <v>0.534232227403577</v>
+        <v>0.5149355570326219</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7698037961521943</v>
+        <v>-0.7278089277960602</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3311188833156458</v>
+        <v>0.3207685294312312</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1690887216257591</v>
       </c>
       <c r="E12" t="n">
-        <v>1.272807132022163</v>
+        <v>1.248571933931579</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8708889995130337</v>
+        <v>-0.8427948333006646</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4618425720423803</v>
+        <v>0.4550651334823559</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.09918791971110756</v>
       </c>
       <c r="E13" t="n">
-        <v>2.125186525794493</v>
+        <v>2.096243350000091</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9006086043289363</v>
+        <v>-0.8724967504169415</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5138218418768801</v>
+        <v>0.5118414294394791</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.02073811389303833</v>
       </c>
       <c r="E14" t="n">
-        <v>2.875216960563761</v>
+        <v>2.836817574597057</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.045547104347961</v>
+        <v>-1.020015214898611</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6532771550119397</v>
+        <v>0.6500116397086306</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.05970463465266888</v>
       </c>
       <c r="E15" t="n">
-        <v>3.658389265066166</v>
+        <v>3.617735612278201</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.190388017058706</v>
+        <v>-1.170955334376836</v>
       </c>
       <c r="G15" t="n">
-        <v>0.752772295168497</v>
+        <v>0.7502344152325483</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1434997622713556</v>
       </c>
       <c r="E16" t="n">
-        <v>4.470057063586239</v>
+        <v>4.436449214456068</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.317197844802748</v>
+        <v>-1.305045175318543</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8420286969244845</v>
+        <v>0.8431003275535308</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2355024944257301</v>
       </c>
       <c r="E17" t="n">
-        <v>5.105550494468989</v>
+        <v>5.080158276854615</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.460265718106187</v>
+        <v>-1.445772782985299</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9682651992323835</v>
+        <v>0.9711049899033225</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3377476569186309</v>
       </c>
       <c r="E18" t="n">
-        <v>5.678442886931673</v>
+        <v>5.652373657366107</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.607187070245319</v>
+        <v>-1.600219946354826</v>
       </c>
       <c r="G18" t="n">
-        <v>1.095761187737767</v>
+        <v>1.094693826553458</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4455673074769566</v>
       </c>
       <c r="E19" t="n">
-        <v>6.188803771931439</v>
+        <v>6.157594130902241</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.834938769991165</v>
+        <v>-1.820019500317231</v>
       </c>
       <c r="G19" t="n">
-        <v>1.264446339385301</v>
+        <v>1.266426751822702</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5530752410981062</v>
       </c>
       <c r="E20" t="n">
-        <v>6.645860029466131</v>
+        <v>6.618412379171114</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.041689680995222</v>
+        <v>-2.023707999603336</v>
       </c>
       <c r="G20" t="n">
-        <v>1.406164458231096</v>
+        <v>1.411172516907874</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6546148129890411</v>
       </c>
       <c r="E21" t="n">
-        <v>6.98406470424699</v>
+        <v>6.960397342306457</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.336141086108882</v>
+        <v>-2.325365007592097</v>
       </c>
       <c r="G21" t="n">
-        <v>1.546244330139146</v>
+        <v>1.549567787906746</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7465506157925486</v>
       </c>
       <c r="E22" t="n">
-        <v>7.320873880519448</v>
+        <v>7.303062976917052</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.53438604335501</v>
+        <v>-2.519652189566807</v>
       </c>
       <c r="G22" t="n">
-        <v>1.725252999161317</v>
+        <v>1.732464091322509</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8257730371156825</v>
       </c>
       <c r="E23" t="n">
-        <v>7.550301642284998</v>
+        <v>7.541418757548839</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.763414307077289</v>
+        <v>-2.749526413267736</v>
       </c>
       <c r="G23" t="n">
-        <v>1.875741167418072</v>
+        <v>1.879625752208281</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8917860362341153</v>
       </c>
       <c r="E24" t="n">
-        <v>7.692824246503424</v>
+        <v>7.692969407624489</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.954023667371209</v>
+        <v>-2.941054924021515</v>
       </c>
       <c r="G24" t="n">
-        <v>2.003279850370828</v>
+        <v>2.011098423526062</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9438115549366749</v>
       </c>
       <c r="E25" t="n">
-        <v>7.856430588675676</v>
+        <v>7.856267129934308</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.107310456653223</v>
+        <v>-3.09500164747577</v>
       </c>
       <c r="G25" t="n">
-        <v>2.110022068008506</v>
+        <v>2.119062922199943</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9822613673423505</v>
       </c>
       <c r="E26" t="n">
-        <v>7.972631456168362</v>
+        <v>7.975301688891165</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.193607828245967</v>
+        <v>-3.18322240392264</v>
       </c>
       <c r="G26" t="n">
-        <v>2.148002438470284</v>
+        <v>2.158655313010366</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.005886964052395</v>
       </c>
       <c r="E27" t="n">
-        <v>7.878280386999498</v>
+        <v>7.884001442947396</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.250637851204618</v>
+        <v>-3.245717011184614</v>
       </c>
       <c r="G27" t="n">
-        <v>2.190627354885499</v>
+        <v>2.200839866696969</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.014595997143619</v>
       </c>
       <c r="E28" t="n">
-        <v>7.797541527494298</v>
+        <v>7.809644793403686</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.312710393358282</v>
+        <v>-3.307993571804651</v>
       </c>
       <c r="G28" t="n">
-        <v>2.236915454885263</v>
+        <v>2.243104929912902</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.007952738398246</v>
       </c>
       <c r="E29" t="n">
-        <v>7.814798623122207</v>
+        <v>7.824209699164429</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.339738418227696</v>
+        <v>-3.335059716716362</v>
       </c>
       <c r="G29" t="n">
-        <v>2.175191482398359</v>
+        <v>2.186065148223423</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9879502662504692</v>
       </c>
       <c r="E30" t="n">
-        <v>7.637514199853203</v>
+        <v>7.66147310387722</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.261193443396758</v>
+        <v>-3.259909255411865</v>
       </c>
       <c r="G30" t="n">
-        <v>2.175129270489331</v>
+        <v>2.185244194992521</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9561281040060938</v>
       </c>
       <c r="E31" t="n">
-        <v>7.405621138712237</v>
+        <v>7.435384047896189</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.239053017870465</v>
+        <v>-3.239039904575915</v>
       </c>
       <c r="G31" t="n">
-        <v>2.134212131969011</v>
+        <v>2.140848678852707</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9146639800129319</v>
       </c>
       <c r="E32" t="n">
-        <v>7.157261439140428</v>
+        <v>7.189548200084763</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.196431151058634</v>
+        <v>-3.196624495913163</v>
       </c>
       <c r="G32" t="n">
-        <v>2.044801420281806</v>
+        <v>2.052360777149421</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8651318302393934</v>
       </c>
       <c r="E33" t="n">
-        <v>6.968532464292923</v>
+        <v>6.999604263249176</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.115547740353044</v>
+        <v>-3.118163080214939</v>
       </c>
       <c r="G33" t="n">
-        <v>1.980723763903332</v>
+        <v>1.985241446356005</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8098462508996852</v>
       </c>
       <c r="E34" t="n">
-        <v>6.644201045225376</v>
+        <v>6.685987930630739</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.98310590507991</v>
+        <v>-2.988422278658784</v>
       </c>
       <c r="G34" t="n">
-        <v>1.799368120117034</v>
+        <v>1.804246875610342</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.750788617101852</v>
       </c>
       <c r="E35" t="n">
-        <v>6.386832817257998</v>
+        <v>6.428156162949032</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.929728697054303</v>
+        <v>-2.934824584308533</v>
       </c>
       <c r="G35" t="n">
-        <v>1.747290653053578</v>
+        <v>1.757411676763535</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6906870055932233</v>
       </c>
       <c r="E36" t="n">
-        <v>5.968805383828414</v>
+        <v>6.011210728799999</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.806353942561707</v>
+        <v>-2.811220499641479</v>
       </c>
       <c r="G36" t="n">
-        <v>1.678949041223958</v>
+        <v>1.687626992612729</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6312831700360599</v>
       </c>
       <c r="E37" t="n">
-        <v>5.584534620174128</v>
+        <v>5.621650733036955</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.692446376813593</v>
+        <v>-2.692467114116602</v>
       </c>
       <c r="G37" t="n">
-        <v>1.507988275531477</v>
+        <v>1.517942180976006</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5749128027073183</v>
       </c>
       <c r="E38" t="n">
-        <v>5.250853117132033</v>
+        <v>5.281472354946139</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.60013183278439</v>
+        <v>-2.600538649875781</v>
       </c>
       <c r="G38" t="n">
-        <v>1.45375229919301</v>
+        <v>1.465583540480569</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5221393692055472</v>
       </c>
       <c r="E39" t="n">
-        <v>4.882359781543866</v>
+        <v>4.91568584732138</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.501623544282812</v>
+        <v>-2.499971879090177</v>
       </c>
       <c r="G39" t="n">
-        <v>1.316423169537094</v>
+        <v>1.326919294463251</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4736067804595553</v>
       </c>
       <c r="E40" t="n">
-        <v>4.529678029579715</v>
+        <v>4.563535946187353</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.500936773600793</v>
+        <v>-2.496660009815436</v>
       </c>
       <c r="G40" t="n">
-        <v>1.182782230213473</v>
+        <v>1.192701980100104</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4294780194378348</v>
       </c>
       <c r="E41" t="n">
-        <v>4.141784337105546</v>
+        <v>4.176321705347082</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.371926961975721</v>
+        <v>-2.373626810901817</v>
       </c>
       <c r="G41" t="n">
-        <v>1.137776183476234</v>
+        <v>1.144433467662939</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3899458109658724</v>
       </c>
       <c r="E42" t="n">
-        <v>3.768417735310162</v>
+        <v>3.800001867634883</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.303360289416381</v>
+        <v>-2.302208759178681</v>
       </c>
       <c r="G42" t="n">
-        <v>1.03113643251225</v>
+        <v>1.043370831367139</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3545762633069761</v>
       </c>
       <c r="E43" t="n">
-        <v>3.438812942071451</v>
+        <v>3.466070297115321</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.213001760997509</v>
+        <v>-2.210755423145046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9052280675284415</v>
+        <v>0.9091236308908314</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3228927454510112</v>
       </c>
       <c r="E44" t="n">
-        <v>3.103038191266756</v>
+        <v>3.1307395685633</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.156590197605082</v>
+        <v>-2.158573049725189</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8926899281765317</v>
+        <v>0.8989934583707229</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2941593809228258</v>
       </c>
       <c r="E45" t="n">
-        <v>2.780900046952795</v>
+        <v>2.80184716267503</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.150576989653022</v>
+        <v>-2.153568650572472</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7811805705293913</v>
+        <v>0.7890589159109459</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2678863447169677</v>
       </c>
       <c r="E46" t="n">
-        <v>2.56167259858518</v>
+        <v>2.585868151831776</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.135667478709916</v>
+        <v>-2.137564332014603</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7101437192292217</v>
+        <v>0.7172675927336389</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2435473712607841</v>
       </c>
       <c r="E47" t="n">
-        <v>2.315851388869997</v>
+        <v>2.336233718045563</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.101278931113507</v>
+        <v>-2.101379568025171</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6719968404226911</v>
+        <v>0.674149250490935</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2207910301693387</v>
       </c>
       <c r="E48" t="n">
-        <v>2.061469332535977</v>
+        <v>2.085970456041623</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.092550966229243</v>
+        <v>-2.097392516561269</v>
       </c>
       <c r="G48" t="n">
-        <v>0.620911714300304</v>
+        <v>0.6186257316038524</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1991007512209687</v>
       </c>
       <c r="E49" t="n">
-        <v>1.900585066344051</v>
+        <v>1.924262796936087</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.047050883743837</v>
+        <v>-2.049121564441397</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5658163597282985</v>
+        <v>0.5658133101249148</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1785918028850175</v>
       </c>
       <c r="E50" t="n">
-        <v>1.749361333751137</v>
+        <v>1.774029575522213</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.03919937487206</v>
+        <v>-2.042661284633282</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5378423478892488</v>
+        <v>0.5321462986890987</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1593901975269429</v>
       </c>
       <c r="E51" t="n">
-        <v>1.534207545583523</v>
+        <v>1.5596442874073</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.986891357792793</v>
+        <v>-1.989077923418934</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4549895033184391</v>
+        <v>0.4510427066192024</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1414919393998853</v>
       </c>
       <c r="E52" t="n">
-        <v>1.431625596881944</v>
+        <v>1.456338972783098</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.955769545341046</v>
+        <v>-1.954256332142034</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4129592595630537</v>
+        <v>0.4062806281526625</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.124722844707728</v>
       </c>
       <c r="E53" t="n">
-        <v>1.273539036834261</v>
+        <v>1.299791242602851</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.882887683993714</v>
+        <v>-1.880901782270222</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3679776096528844</v>
+        <v>0.3644693459202296</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1088232890456485</v>
       </c>
       <c r="E54" t="n">
-        <v>1.171832324303815</v>
+        <v>1.195869908095133</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.901078568177725</v>
+        <v>-1.901669581313494</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2875479799307948</v>
+        <v>0.284104977710552</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.09373453215995127</v>
       </c>
       <c r="E55" t="n">
-        <v>1.160432906855394</v>
+        <v>1.186142893142355</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.939978699020039</v>
+        <v>-1.932731011618242</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2353131533327376</v>
+        <v>0.2337761532273325</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.07932350329877821</v>
       </c>
       <c r="E56" t="n">
-        <v>1.078988369127196</v>
+        <v>1.102107412379331</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.935421371723377</v>
+        <v>-1.929400234802521</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1766198766885952</v>
+        <v>0.1704560183293793</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.06538731723120275</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9471314477830634</v>
+        <v>0.9712641791999538</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.882410726024497</v>
+        <v>-1.876295051398744</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1506525038760466</v>
+        <v>0.1457761880654459</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.05156638509343719</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8482712350510009</v>
+        <v>0.8728150530040194</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.905624916902205</v>
+        <v>-1.895868625756943</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1043192697462037</v>
+        <v>0.1024791390644548</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.03779080839063866</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6901145341254922</v>
+        <v>0.711852107044793</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.909181974288999</v>
+        <v>-1.904341643798327</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08518239859255662</v>
+        <v>0.08164912811215512</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02376886595243477</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5934238092406225</v>
+        <v>0.6166245818634419</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.913789315081154</v>
+        <v>-1.903962883058066</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02971377256638124</v>
+        <v>0.02824935302150915</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.009220976157424296</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4740916089935115</v>
+        <v>0.5025316002295968</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.908757469497983</v>
+        <v>-1.900089276840039</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01319285119530659</v>
+        <v>0.01374909885250082</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.005887895454466906</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3455862017681097</v>
+        <v>0.3778156301688306</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.884489335690854</v>
+        <v>-1.875893723593444</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02416174065212822</v>
+        <v>-0.0267276769392073</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.02147584087747662</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2571660012599438</v>
+        <v>0.2913856008288935</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.876938517712713</v>
+        <v>-1.865777579248901</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06298929093390959</v>
+        <v>-0.06686350707261325</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.0370792689548768</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1235134734434651</v>
+        <v>0.1598226612509537</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.886074519529722</v>
+        <v>-1.876474977998385</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.07762982685856996</v>
+        <v>-0.07718031531980665</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.05236943146714443</v>
       </c>
       <c r="E65" t="n">
-        <v>0.063940691183452</v>
+        <v>0.1004542024176512</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.885051682554816</v>
+        <v>-1.878808534507623</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1225657327179831</v>
+        <v>-0.1249041685926352</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.06689037428614614</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.09812377151798146</v>
+        <v>-0.05010959600302085</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.86155570832445</v>
+        <v>-1.851047384984758</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1437671853624224</v>
+        <v>-0.1426510305239734</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.0808182436222725</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.1844379159293364</v>
+        <v>-0.1383785361833533</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.846046645356101</v>
+        <v>-1.842105337942955</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1677364580379443</v>
+        <v>-0.1679609088469876</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.0941919099035526</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.2081369937450589</v>
+        <v>-0.1645423034538147</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.851961656079204</v>
+        <v>-1.844708479391316</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2034930577122992</v>
+        <v>-0.2054606618154884</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1066621699471127</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1790260897645509</v>
+        <v>-0.1463556887145411</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.797320082490699</v>
+        <v>-1.793156763951216</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.183918263512747</v>
+        <v>-0.1857199691918608</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1174419041383694</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2395918228863098</v>
+        <v>-0.2020664532493855</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.823941290268721</v>
+        <v>-1.826326080114806</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2231331134242634</v>
+        <v>-0.2225524689399993</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1256375790148881</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1517016434462379</v>
+        <v>-0.1205792210738147</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.834764332677615</v>
+        <v>-1.824551820866146</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2139214814433375</v>
+        <v>-0.2166283094067454</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1304177766280301</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.08406692968096897</v>
+        <v>-0.06236351231956608</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.867786657958109</v>
+        <v>-1.859094068473095</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2190557937002026</v>
+        <v>-0.222248118522302</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1308999149634886</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1032909434852065</v>
+        <v>0.1207255260300497</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.883946506288549</v>
+        <v>-1.875358823159936</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.194773631717509</v>
+        <v>-0.2040017315567071</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1263330737197211</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2316627780824005</v>
+        <v>0.2494072003310317</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.902029434512775</v>
+        <v>-1.893614968856359</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.200648997596623</v>
+        <v>-0.2094117279594624</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1165669109690523</v>
       </c>
       <c r="E75" t="n">
-        <v>0.382944453139605</v>
+        <v>0.3933326221059779</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.935912967788836</v>
+        <v>-1.925382077384105</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2162416196976871</v>
+        <v>-0.2220700216846916</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.101836681802749</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5387535693803104</v>
+        <v>0.5438494566345404</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.001464192522334</v>
+        <v>-1.987566539981953</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1883005435751818</v>
+        <v>-0.1948029079099929</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.0828666054305694</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7724312584214403</v>
+        <v>0.7768519634865103</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.980116358915475</v>
+        <v>-1.974072654929579</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1072439153973952</v>
+        <v>-0.1175308375314279</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.06018171132691</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9615335047231152</v>
+        <v>0.959708622058285</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.019824024733804</v>
+        <v>-2.01282335520609</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.06117904636532135</v>
+        <v>-0.06955630686045593</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.03401894700290025</v>
       </c>
       <c r="E79" t="n">
-        <v>1.20064558699407</v>
+        <v>1.200981043366282</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.986196658141977</v>
+        <v>-1.980009622797044</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.009280895980829099</v>
+        <v>-0.02442705614651362</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.005038810403973989</v>
       </c>
       <c r="E80" t="n">
-        <v>1.37314457263331</v>
+        <v>1.369857100185638</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.013144783402736</v>
+        <v>-2.011306482483017</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.0004047203721146126</v>
+        <v>-0.01100514173399586</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.02547097150042095</v>
       </c>
       <c r="E81" t="n">
-        <v>1.665477723236624</v>
+        <v>1.658042790187065</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.99081924695105</v>
+        <v>-1.993274787595638</v>
       </c>
       <c r="G81" t="n">
-        <v>0.002661960790574623</v>
+        <v>-0.008361135600293029</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.05545845447689227</v>
       </c>
       <c r="E82" t="n">
-        <v>1.908982454221518</v>
+        <v>1.896593135514735</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.91740248517021</v>
+        <v>-1.921203510827703</v>
       </c>
       <c r="G82" t="n">
-        <v>0.08890169487936628</v>
+        <v>0.07313524538542898</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.08317124676776232</v>
       </c>
       <c r="E83" t="n">
-        <v>2.172824990172577</v>
+        <v>2.158135660593777</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.87486295764974</v>
+        <v>-1.878474907897442</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1042741356161243</v>
+        <v>0.09066558547652166</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.107073774541205</v>
       </c>
       <c r="E84" t="n">
-        <v>2.352314886608702</v>
+        <v>2.351844027846253</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.827226932954363</v>
+        <v>-1.834392890985476</v>
       </c>
       <c r="G84" t="n">
-        <v>0.09323823089104497</v>
+        <v>0.08380397786310601</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1260751328524478</v>
       </c>
       <c r="E85" t="n">
-        <v>2.547759088107203</v>
+        <v>2.538499272392814</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.707891073183191</v>
+        <v>-1.712464868338125</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1003352678856854</v>
+        <v>0.09381704561327887</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1402666438303063</v>
       </c>
       <c r="E86" t="n">
-        <v>2.712526719247984</v>
+        <v>2.703005857483947</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.539532229097718</v>
+        <v>-1.542059130461485</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06412671698986017</v>
+        <v>0.0598755698729262</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.149337372541828</v>
       </c>
       <c r="E87" t="n">
-        <v>2.817492847874972</v>
+        <v>2.806709450310066</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.35662738679248</v>
+        <v>-1.360504652534567</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1155485193258122</v>
+        <v>0.114355514482093</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1526952977838862</v>
       </c>
       <c r="E88" t="n">
-        <v>2.931621204908068</v>
+        <v>2.91544610856071</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.190217849189893</v>
+        <v>-1.191906719543809</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06469028369517536</v>
+        <v>0.0692646887707858</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1494227753835776</v>
       </c>
       <c r="E89" t="n">
-        <v>2.885334324749658</v>
+        <v>2.871974622246169</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.009909439205572</v>
+        <v>-1.01234424254715</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07655812022333908</v>
+        <v>0.08022557325262515</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1393984427903384</v>
       </c>
       <c r="E90" t="n">
-        <v>2.855486026670962</v>
+        <v>2.847546079301055</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7952307792451441</v>
+        <v>-0.7996148890696091</v>
       </c>
       <c r="G90" t="n">
-        <v>0.007925576230910362</v>
+        <v>0.01837961663037208</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1227499780243277</v>
       </c>
       <c r="E91" t="n">
-        <v>2.81266349595648</v>
+        <v>2.800637080052362</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5320750139761037</v>
+        <v>-0.5383425588503667</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01491107374789042</v>
+        <v>-0.00401423093710962</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1001144503099771</v>
       </c>
       <c r="E92" t="n">
-        <v>2.720375178516378</v>
+        <v>2.709822330967283</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3124511171686025</v>
+        <v>-0.3193609085154813</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06226897461467013</v>
+        <v>-0.05520304357454388</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07241157134582794</v>
       </c>
       <c r="E93" t="n">
-        <v>2.632425836770662</v>
+        <v>2.621918123351646</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08505805078068457</v>
+        <v>-0.09240881477685216</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1069633518860911</v>
+        <v>-0.09656847379227392</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04238273663840953</v>
       </c>
       <c r="E94" t="n">
-        <v>2.542145378198414</v>
+        <v>2.531921887814764</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1059337297775558</v>
+        <v>0.09760526293656106</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1606113646921735</v>
+        <v>-0.1526598288294091</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01391607363552549</v>
       </c>
       <c r="E95" t="n">
-        <v>2.331416564540607</v>
+        <v>2.32005008280873</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2102210166913225</v>
+        <v>0.2031062919970564</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1763369495007687</v>
+        <v>-0.1672290040348899</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.009899632541337872</v>
       </c>
       <c r="E96" t="n">
-        <v>2.184153656822495</v>
+        <v>2.177966621477563</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2915167337743944</v>
+        <v>0.285506575425719</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2510930970877479</v>
+        <v>-0.243043363996027</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02836313267687006</v>
       </c>
       <c r="E97" t="n">
-        <v>1.992173804767923</v>
+        <v>1.985967251961335</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3935930582349493</v>
+        <v>0.3843625187130442</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2143642838546566</v>
+        <v>-0.2039328105202345</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04385976476032574</v>
       </c>
       <c r="E98" t="n">
-        <v>1.851618804652687</v>
+        <v>1.839291697854932</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4327115406795395</v>
+        <v>0.4228247265094535</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3088214792212748</v>
+        <v>-0.2991011733959411</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.05785859276699836</v>
       </c>
       <c r="E99" t="n">
-        <v>1.715723598507805</v>
+        <v>1.70869304286693</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4321016200027915</v>
+        <v>0.4259481302950803</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2840580898246269</v>
+        <v>-0.2769104294138164</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07325636463881186</v>
       </c>
       <c r="E100" t="n">
-        <v>1.501745737404961</v>
+        <v>1.491693634731476</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4238432940396228</v>
+        <v>0.4187870516293814</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4039050631229133</v>
+        <v>-0.3922513087522882</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.0893361161517915</v>
       </c>
       <c r="E101" t="n">
-        <v>1.448042221817294</v>
+        <v>1.434949054649544</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4328634109280498</v>
+        <v>0.4306030449000215</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4155826043999317</v>
+        <v>-0.4075578780559574</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1127965589212378</v>
       </c>
       <c r="E102" t="n">
-        <v>1.331642520183988</v>
+        <v>1.313967628892506</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4369761060513619</v>
+        <v>0.4346388900180634</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4278578679401631</v>
+        <v>-0.4181015767949011</v>
       </c>
     </row>
   </sheetData>
